--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H2">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J2">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>4176.300549457967</v>
+        <v>5179.46444696142</v>
       </c>
       <c r="R2">
-        <v>37586.7049451217</v>
+        <v>46615.18002265278</v>
       </c>
       <c r="S2">
-        <v>0.01473330494262953</v>
+        <v>0.01988513916259085</v>
       </c>
       <c r="T2">
-        <v>0.01473330494262953</v>
+        <v>0.01988513916259085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H3">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J3">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>4401.975483758357</v>
+        <v>5604.089643156111</v>
       </c>
       <c r="R3">
-        <v>39617.77935382521</v>
+        <v>50436.806788405</v>
       </c>
       <c r="S3">
-        <v>0.01552944918214961</v>
+        <v>0.02151537163251879</v>
       </c>
       <c r="T3">
-        <v>0.01552944918214961</v>
+        <v>0.0215153716325188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H4">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J4">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>2844.068386412499</v>
+        <v>2415.84957073839</v>
       </c>
       <c r="R4">
-        <v>25596.6154777125</v>
+        <v>21742.64613664552</v>
       </c>
       <c r="S4">
-        <v>0.01003340787342187</v>
+        <v>0.009274994625786277</v>
       </c>
       <c r="T4">
-        <v>0.01003340787342187</v>
+        <v>0.00927499462578628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H5">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J5">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1523.826455971319</v>
+        <v>1897.10006105577</v>
       </c>
       <c r="R5">
-        <v>13714.43810374187</v>
+        <v>17073.90054950193</v>
       </c>
       <c r="S5">
-        <v>0.005375810382800571</v>
+        <v>0.007283397560839474</v>
       </c>
       <c r="T5">
-        <v>0.00537581038280057</v>
+        <v>0.007283397560839477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.51004766666667</v>
+        <v>32.476463</v>
       </c>
       <c r="H6">
-        <v>76.530143</v>
+        <v>97.42938900000001</v>
       </c>
       <c r="I6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309313</v>
       </c>
       <c r="J6">
-        <v>0.05349777980923714</v>
+        <v>0.06665517574309314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>2218.302274320491</v>
+        <v>2265.110403314008</v>
       </c>
       <c r="R6">
-        <v>19964.72046888442</v>
+        <v>20385.99362982608</v>
       </c>
       <c r="S6">
-        <v>0.007825807428235562</v>
+        <v>0.008696272761357723</v>
       </c>
       <c r="T6">
-        <v>0.00782580742823556</v>
+        <v>0.008696272761357728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
         <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J7">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>71918.45998481395</v>
+        <v>70060.95226587266</v>
       </c>
       <c r="R7">
-        <v>647266.1398633255</v>
+        <v>630548.5703928539</v>
       </c>
       <c r="S7">
-        <v>0.2537165583300958</v>
+        <v>0.2689798916349025</v>
       </c>
       <c r="T7">
-        <v>0.2537165583300957</v>
+        <v>0.2689798916349025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
         <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J8">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>75804.72093271544</v>
+        <v>75804.72093271543</v>
       </c>
       <c r="R8">
-        <v>682242.488394439</v>
+        <v>682242.4883944389</v>
       </c>
       <c r="S8">
-        <v>0.2674266510195447</v>
+        <v>0.2910315227306431</v>
       </c>
       <c r="T8">
-        <v>0.2674266510195447</v>
+        <v>0.2910315227306431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
         <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J9">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>48976.60405902268</v>
+        <v>32678.42132912551</v>
       </c>
       <c r="R9">
-        <v>440789.4365312041</v>
+        <v>294105.7919621296</v>
       </c>
       <c r="S9">
-        <v>0.1727814447525003</v>
+        <v>0.1254598737760731</v>
       </c>
       <c r="T9">
-        <v>0.1727814447525003</v>
+        <v>0.1254598737760731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
         <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J10">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>26241.22730146846</v>
+        <v>25661.46330035856</v>
       </c>
       <c r="R10">
-        <v>236171.0457132161</v>
+        <v>230953.169703227</v>
       </c>
       <c r="S10">
-        <v>0.09257475589288437</v>
+        <v>0.09852017985039155</v>
       </c>
       <c r="T10">
-        <v>0.09257475589288436</v>
+        <v>0.09852017985039156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>439.2986856666667</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
         <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559002</v>
       </c>
       <c r="J11">
-        <v>0.9212646194695842</v>
+        <v>0.9016231569559003</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>38200.52734725855</v>
+        <v>30639.42101902344</v>
       </c>
       <c r="R11">
-        <v>343804.746125327</v>
+        <v>275754.789171211</v>
       </c>
       <c r="S11">
-        <v>0.1347652094745591</v>
+        <v>0.11763168896389</v>
       </c>
       <c r="T11">
-        <v>0.134765209474559</v>
+        <v>0.11763168896389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H12">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J12">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>10.695467713812</v>
+        <v>55.87020150818846</v>
       </c>
       <c r="R12">
-        <v>96.259209424308</v>
+        <v>502.831813573696</v>
       </c>
       <c r="S12">
-        <v>3.773185992375304E-05</v>
+        <v>0.0002144983797859818</v>
       </c>
       <c r="T12">
-        <v>3.773185992375304E-05</v>
+        <v>0.0002144983797859818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H13">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J13">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>11.273419167507</v>
+        <v>60.45057763004201</v>
       </c>
       <c r="R13">
-        <v>101.460772507563</v>
+        <v>544.055198670378</v>
       </c>
       <c r="S13">
-        <v>3.977077807834554E-05</v>
+        <v>0.0002320834829434134</v>
       </c>
       <c r="T13">
-        <v>3.977077807834553E-05</v>
+        <v>0.0002320834829434134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H14">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J14">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>7.283633264061</v>
+        <v>26.05945145734289</v>
       </c>
       <c r="R14">
-        <v>65.552699376549</v>
+        <v>234.535063116086</v>
       </c>
       <c r="S14">
-        <v>2.569546628621318E-05</v>
+        <v>0.0001000481466832056</v>
       </c>
       <c r="T14">
-        <v>2.569546628621318E-05</v>
+        <v>0.0001000481466832056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H15">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J15">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>3.90250569093</v>
+        <v>20.46376875017711</v>
       </c>
       <c r="R15">
-        <v>35.12255121836999</v>
+        <v>184.173918751594</v>
       </c>
       <c r="S15">
-        <v>1.376740148461806E-05</v>
+        <v>7.856505118537418E-05</v>
       </c>
       <c r="T15">
-        <v>1.376740148461806E-05</v>
+        <v>7.856505118537421E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.065331</v>
+        <v>0.3503193333333334</v>
       </c>
       <c r="H16">
-        <v>0.195993</v>
+        <v>1.050958</v>
       </c>
       <c r="I16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741536</v>
       </c>
       <c r="J16">
-        <v>0.0001370073274023781</v>
+        <v>0.0007190006106741537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>5.681051943819</v>
+        <v>24.43344789164267</v>
       </c>
       <c r="R16">
-        <v>51.129467494371</v>
+        <v>219.901031024784</v>
       </c>
       <c r="S16">
-        <v>2.004182162944832E-05</v>
+        <v>9.380555007617867E-05</v>
       </c>
       <c r="T16">
-        <v>2.004182162944831E-05</v>
+        <v>9.38055500761787E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H17">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J17">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>1922.773911496759</v>
+        <v>2363.358782975823</v>
       </c>
       <c r="R17">
-        <v>17304.96520347083</v>
+        <v>21270.2290467824</v>
       </c>
       <c r="S17">
-        <v>0.006783231723466608</v>
+        <v>0.009073470582113186</v>
       </c>
       <c r="T17">
-        <v>0.006783231723466608</v>
+        <v>0.009073470582113186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H18">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J18">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>2026.674928919428</v>
+        <v>2557.11273131855</v>
       </c>
       <c r="R18">
-        <v>18240.07436027485</v>
+        <v>23014.01458186695</v>
       </c>
       <c r="S18">
-        <v>0.007149777510918693</v>
+        <v>0.009817335949961569</v>
       </c>
       <c r="T18">
-        <v>0.007149777510918692</v>
+        <v>0.009817335949961569</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H19">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J19">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1309.412584450222</v>
+        <v>1102.337772528294</v>
       </c>
       <c r="R19">
-        <v>11784.713260052</v>
+        <v>9921.039952754651</v>
       </c>
       <c r="S19">
-        <v>0.004619393330043169</v>
+        <v>0.004232124814326161</v>
       </c>
       <c r="T19">
-        <v>0.004619393330043169</v>
+        <v>0.004232124814326162</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H20">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J20">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>701.5715752474978</v>
+        <v>865.6354604597057</v>
       </c>
       <c r="R20">
-        <v>6314.144177227479</v>
+        <v>7790.719144137351</v>
       </c>
       <c r="S20">
-        <v>0.002475029714646349</v>
+        <v>0.003323370933729063</v>
       </c>
       <c r="T20">
-        <v>0.002475029714646349</v>
+        <v>0.003323370933729063</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.74485733333333</v>
+        <v>14.81881666666667</v>
       </c>
       <c r="H21">
-        <v>35.234572</v>
+        <v>44.45645</v>
       </c>
       <c r="I21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="J21">
-        <v>0.02463044364791939</v>
+        <v>0.03041435975405771</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1021.30909649952</v>
+        <v>1033.556388097734</v>
       </c>
       <c r="R21">
-        <v>9191.781868495684</v>
+        <v>9302.007492879602</v>
       </c>
       <c r="S21">
-        <v>0.003603011368844571</v>
+        <v>0.003968057473927725</v>
       </c>
       <c r="T21">
-        <v>0.00360301136884457</v>
+        <v>0.003968057473927726</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H22">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I22">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J22">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>36.70220799724756</v>
+        <v>45.71460245007646</v>
       </c>
       <c r="R22">
-        <v>330.319871975228</v>
+        <v>411.431422050688</v>
       </c>
       <c r="S22">
-        <v>0.0001294793839876889</v>
+        <v>0.0001755087308332784</v>
       </c>
       <c r="T22">
-        <v>0.0001294793839876889</v>
+        <v>0.0001755087308332784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H23">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I23">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J23">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>38.685486805937</v>
+        <v>49.462397658076</v>
       </c>
       <c r="R23">
-        <v>348.1693812534329</v>
+        <v>445.161578922684</v>
       </c>
       <c r="S23">
-        <v>0.0001364760670876323</v>
+        <v>0.0001898973669610316</v>
       </c>
       <c r="T23">
-        <v>0.0001364760670876322</v>
+        <v>0.0001898973669610316</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H24">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I24">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J24">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>24.99427142283989</v>
+        <v>21.32259113590089</v>
       </c>
       <c r="R24">
-        <v>224.948442805559</v>
+        <v>191.903320223108</v>
       </c>
       <c r="S24">
-        <v>8.817569960077346E-05</v>
+        <v>8.186226517939714E-05</v>
       </c>
       <c r="T24">
-        <v>8.817569960077346E-05</v>
+        <v>8.186226517939715E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H25">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I25">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J25">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>13.39170753551889</v>
+        <v>16.74404293865911</v>
       </c>
       <c r="R25">
-        <v>120.52536781967</v>
+        <v>150.696386447932</v>
       </c>
       <c r="S25">
-        <v>4.724375281106557E-05</v>
+        <v>6.428417983928161E-05</v>
       </c>
       <c r="T25">
-        <v>4.724375281106556E-05</v>
+        <v>6.428417983928161E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2241876666666666</v>
+        <v>0.2866413333333334</v>
       </c>
       <c r="H26">
-        <v>0.6725629999999999</v>
+        <v>0.859924</v>
       </c>
       <c r="I26">
-        <v>0.0004701497458568706</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="J26">
-        <v>0.0004701497458568705</v>
+        <v>0.000588306936274676</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>19.49490715735122</v>
+        <v>19.99214834919467</v>
       </c>
       <c r="R26">
-        <v>175.454164416161</v>
+        <v>179.929335142752</v>
       </c>
       <c r="S26">
-        <v>6.877484236971038E-05</v>
+        <v>7.675439346168721E-05</v>
       </c>
       <c r="T26">
-        <v>6.877484236971036E-05</v>
+        <v>7.675439346168723E-05</v>
       </c>
     </row>
   </sheetData>
